--- a/biology/Botanique/Detarioideae/Detarioideae.xlsx
+++ b/biology/Botanique/Detarioideae/Detarioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Detarioideae sont une sous-famille de plantes de la famille des Fabaceae (légumineuses). Ce groupe à répartition pantropicale, monophylétique en dépit d'une très grande diversité morphologique, regroupe 81 genres et environ 760 espèces. C'est l'une des plus anciennes lignées dans la phylogénie des Légumineuses qui a été récemment rétablie en tant que sous-famille des Detarioideae Burmeist. dans la nouvelle classification de la famille proposée en 2017 par le Legume Phylogeny Working Group, qui reconnaît six sous-familles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Detarioideae sont une sous-famille de plantes de la famille des Fabaceae (légumineuses). Ce groupe à répartition pantropicale, monophylétique en dépit d'une très grande diversité morphologique, regroupe 81 genres et environ 760 espèces. C'est l'une des plus anciennes lignées dans la phylogénie des Légumineuses qui a été récemment rétablie en tant que sous-famille des Detarioideae Burmeist. dans la nouvelle classification de la famille proposée en 2017 par le Legume Phylogeny Working Group, qui reconnaît six sous-familles.
 Cette sous-famille comprend de nombreux arbres tropicaux exploités pour le bois d'œuvre ou ayant une importance écologique certaine, originaires pour la plupart d'Afrique et d'Asie. Amherstia nobilis et Tamarindus indica (tamarin) sont deux des plus notables espèces de Detarioideae. 
 La définition cladistique de cette sous-famille est la suivante :  
-« Le clade de couronne le plus inclusif contient Goniorrhachis marginata Taub. et Aphanocalyx cynometroides Oliv., mais pas Cercis canadensis L., Duparquetia orchidacea Baill. ou Bobgunnia fistuloides (Harms) J. H. Kirkbr. &amp; Wiersema[3]. »
+« Le clade de couronne le plus inclusif contient Goniorrhachis marginata Taub. et Aphanocalyx cynometroides Oliv., mais pas Cercis canadensis L., Duparquetia orchidacea Baill. ou Bobgunnia fistuloides (Harms) J. H. Kirkbr. &amp; Wiersema. »
 </t>
         </is>
       </c>
@@ -514,15 +526,121 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Detarioideae comprennent six tribus : Detarieae et Amherstieae, dont la circonscription a été modifiée, et quatre nouvelles tribus (Afzelieae, Barnebydendreae, Saraceae et Schotieae)[3],[2].
-Schotieae
-Schotia Jacq.
-Barnebydendreae
-Barnebydendron J.H.Kirkbr.
-Goniorrachis Taub.
-Detarieae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Detarioideae comprennent six tribus : Detarieae et Amherstieae, dont la circonscription a été modifiée, et quatre nouvelles tribus (Afzelieae, Barnebydendreae, Saraceae et Schotieae),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Schotieae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Schotia Jacq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barnebydendreae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barnebydendron J.H.Kirkbr.
+Goniorrachis Taub.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Detarieae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Augouardia Pellegr.
 Baikiaea Benth.
 Brandzeia Baill.
@@ -544,18 +662,126 @@
 Sindoropsis J. Léonard
 Stemonocoleus Harms
 Tessmannia Harms
-Saraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saraceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Endertia Steenis &amp; de Wit
 Leucostegane Prain
 Lysidice Hance
 Saraca L.
-Afzelieae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Afzelieae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Afzelia Sm.
 Brodriguesia R.S. Cowan
 Intsia Thouars
-Amherstieae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Detarioideae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Amherstieae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amherstia Wall.
-Annea Mackinder &amp; Wieringa[4]
+Annea Mackinder &amp; Wieringa
 Anthonotha P. Beauv.
 Aphanocalyx Oliver
 Berlinia Sol. ex Hook. f.
@@ -572,14 +798,14 @@
 Ecuadendron D.A. Neill
 Elizabetha Schomb. ex Benth.
 EnglerodendronHarms
-Gabonius Wieringa &amp; Mackinder[5]
+Gabonius Wieringa &amp; Mackinder
 Gilbertiodendron J. Léonard
 Heterostemon Desf.
 Humboldtia Vahl
 Hymenostegia (Benth.) Harms
 Icuria Wieringa
 Isoberlinia Craib &amp; Stapf ex Holland
-Isomacrolobium Aubrév. &amp; Pellegr.[6]
+Isomacrolobium Aubrév. &amp; Pellegr.
 Julbernardia Pellegr.
 Lebruniodendron J. Léonard
 Leonardoxa Aubrév.
@@ -608,33 +834,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Detarioideae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Detarioideae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Detarioideae présentent les relations phylogénétiques suivantes[7],[8],[9],[10],[11] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Detarioideae présentent les relations phylogénétiques suivantes :
 Fabales
 Cercideae clade (groupe externe)
 Detarioideae
@@ -676,7 +904,7 @@
 Intsia
 Amherstieae
 Amherstia
-Brownea Clade[12],[13]
+Brownea Clade,
 Elizabetha
 Heterostemon
 Macrolobium
